--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>49.0826755826431</v>
+        <v>11.898632</v>
       </c>
       <c r="H2">
-        <v>49.0826755826431</v>
+        <v>35.695896</v>
       </c>
       <c r="I2">
-        <v>0.9421759609504839</v>
+        <v>0.1819741108242693</v>
       </c>
       <c r="J2">
-        <v>0.9421759609504839</v>
+        <v>0.1819741108242693</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.0882008104475</v>
+        <v>44.017783</v>
       </c>
       <c r="N2">
-        <v>43.0882008104475</v>
+        <v>132.053349</v>
       </c>
       <c r="O2">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="P2">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="Q2">
-        <v>2114.884181818974</v>
+        <v>523.7514013728561</v>
       </c>
       <c r="R2">
-        <v>2114.884181818974</v>
+        <v>4713.762612355705</v>
       </c>
       <c r="S2">
-        <v>0.2397867793374209</v>
+        <v>0.04612746782713202</v>
       </c>
       <c r="T2">
-        <v>0.2397867793374209</v>
+        <v>0.04612746782713201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>49.0826755826431</v>
+        <v>11.898632</v>
       </c>
       <c r="H3">
-        <v>49.0826755826431</v>
+        <v>35.695896</v>
       </c>
       <c r="I3">
-        <v>0.9421759609504839</v>
+        <v>0.1819741108242693</v>
       </c>
       <c r="J3">
-        <v>0.9421759609504839</v>
+        <v>0.1819741108242693</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>99.6651130769268</v>
+        <v>99.76728333333334</v>
       </c>
       <c r="N3">
-        <v>99.6651130769268</v>
+        <v>299.30185</v>
       </c>
       <c r="O3">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="P3">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="Q3">
-        <v>4891.830412062239</v>
+        <v>1187.094190023067</v>
       </c>
       <c r="R3">
-        <v>4891.830412062239</v>
+        <v>10683.8477102076</v>
       </c>
       <c r="S3">
-        <v>0.5546385327656002</v>
+        <v>0.1045489308754759</v>
       </c>
       <c r="T3">
-        <v>0.5546385327656002</v>
+        <v>0.1045489308754759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>49.0826755826431</v>
+        <v>11.898632</v>
       </c>
       <c r="H4">
-        <v>49.0826755826431</v>
+        <v>35.695896</v>
       </c>
       <c r="I4">
-        <v>0.9421759609504839</v>
+        <v>0.1819741108242693</v>
       </c>
       <c r="J4">
-        <v>0.9421759609504839</v>
+        <v>0.1819741108242693</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.807486038585729</v>
+        <v>10.852095</v>
       </c>
       <c r="N4">
-        <v>9.807486038585729</v>
+        <v>32.556285</v>
       </c>
       <c r="O4">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="P4">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="Q4">
-        <v>481.3776555132048</v>
+        <v>129.12508483404</v>
       </c>
       <c r="R4">
-        <v>481.3776555132048</v>
+        <v>1162.12576350636</v>
       </c>
       <c r="S4">
-        <v>0.05457887417798563</v>
+        <v>0.01137221433822508</v>
       </c>
       <c r="T4">
-        <v>0.05457887417798563</v>
+        <v>0.01137221433822508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>49.0826755826431</v>
+        <v>11.898632</v>
       </c>
       <c r="H5">
-        <v>49.0826755826431</v>
+        <v>35.695896</v>
       </c>
       <c r="I5">
-        <v>0.9421759609504839</v>
+        <v>0.1819741108242693</v>
       </c>
       <c r="J5">
-        <v>0.9421759609504839</v>
+        <v>0.1819741108242693</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.7423915026398</v>
+        <v>19.01418566666667</v>
       </c>
       <c r="N5">
-        <v>16.7423915026398</v>
+        <v>57.042557</v>
       </c>
       <c r="O5">
-        <v>0.09888999351616218</v>
+        <v>0.1094963327100864</v>
       </c>
       <c r="P5">
-        <v>0.09888999351616218</v>
+        <v>0.1094963327100864</v>
       </c>
       <c r="Q5">
-        <v>821.7613706016699</v>
+        <v>226.2427980273413</v>
       </c>
       <c r="R5">
-        <v>821.7613706016699</v>
+        <v>2036.185182246072</v>
       </c>
       <c r="S5">
-        <v>0.09317177466947722</v>
+        <v>0.01992549778343633</v>
       </c>
       <c r="T5">
-        <v>0.09317177466947722</v>
+        <v>0.01992549778343633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.624638566220864</v>
+        <v>50.04372666666666</v>
       </c>
       <c r="H6">
-        <v>0.624638566220864</v>
+        <v>150.13118</v>
       </c>
       <c r="I6">
-        <v>0.01199037001120597</v>
+        <v>0.7653537534818657</v>
       </c>
       <c r="J6">
-        <v>0.01199037001120597</v>
+        <v>0.7653537534818657</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.0882008104475</v>
+        <v>44.017783</v>
       </c>
       <c r="N6">
-        <v>43.0882008104475</v>
+        <v>132.053349</v>
       </c>
       <c r="O6">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="P6">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="Q6">
-        <v>26.9145519752746</v>
+        <v>2202.813900924647</v>
       </c>
       <c r="R6">
-        <v>26.9145519752746</v>
+        <v>19825.32510832182</v>
       </c>
       <c r="S6">
-        <v>0.003051587311939681</v>
+        <v>0.1940046882504186</v>
       </c>
       <c r="T6">
-        <v>0.003051587311939681</v>
+        <v>0.1940046882504186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.624638566220864</v>
+        <v>50.04372666666666</v>
       </c>
       <c r="H7">
-        <v>0.624638566220864</v>
+        <v>150.13118</v>
       </c>
       <c r="I7">
-        <v>0.01199037001120597</v>
+        <v>0.7653537534818657</v>
       </c>
       <c r="J7">
-        <v>0.01199037001120597</v>
+        <v>0.7653537534818657</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>99.6651130769268</v>
+        <v>99.76728333333334</v>
       </c>
       <c r="N7">
-        <v>99.6651130769268</v>
+        <v>299.30185</v>
       </c>
       <c r="O7">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="P7">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="Q7">
-        <v>62.25467333461184</v>
+        <v>4992.726657409222</v>
       </c>
       <c r="R7">
-        <v>62.25467333461184</v>
+        <v>44934.539916683</v>
       </c>
       <c r="S7">
-        <v>0.007058470504408717</v>
+        <v>0.4397159370946628</v>
       </c>
       <c r="T7">
-        <v>0.007058470504408717</v>
+        <v>0.4397159370946628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.624638566220864</v>
+        <v>50.04372666666666</v>
       </c>
       <c r="H8">
-        <v>0.624638566220864</v>
+        <v>150.13118</v>
       </c>
       <c r="I8">
-        <v>0.01199037001120597</v>
+        <v>0.7653537534818657</v>
       </c>
       <c r="J8">
-        <v>0.01199037001120597</v>
+        <v>0.7653537534818657</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.807486038585729</v>
+        <v>10.852095</v>
       </c>
       <c r="N8">
-        <v>9.807486038585729</v>
+        <v>32.556285</v>
       </c>
       <c r="O8">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="P8">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="Q8">
-        <v>6.126134017373331</v>
+        <v>543.0792759407</v>
       </c>
       <c r="R8">
-        <v>6.126134017373331</v>
+        <v>4887.7134834663</v>
       </c>
       <c r="S8">
-        <v>0.0006945845821930237</v>
+        <v>0.04782969890462058</v>
       </c>
       <c r="T8">
-        <v>0.0006945845821930237</v>
+        <v>0.04782969890462058</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.624638566220864</v>
+        <v>50.04372666666666</v>
       </c>
       <c r="H9">
-        <v>0.624638566220864</v>
+        <v>150.13118</v>
       </c>
       <c r="I9">
-        <v>0.01199037001120597</v>
+        <v>0.7653537534818657</v>
       </c>
       <c r="J9">
-        <v>0.01199037001120597</v>
+        <v>0.7653537534818657</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.7423915026398</v>
+        <v>19.01418566666667</v>
       </c>
       <c r="N9">
-        <v>16.7423915026398</v>
+        <v>57.042557</v>
       </c>
       <c r="O9">
-        <v>0.09888999351616218</v>
+        <v>0.1094963327100864</v>
       </c>
       <c r="P9">
-        <v>0.09888999351616218</v>
+        <v>0.1094963327100864</v>
       </c>
       <c r="Q9">
-        <v>10.4579434233173</v>
+        <v>951.5407102919177</v>
       </c>
       <c r="R9">
-        <v>10.4579434233173</v>
+        <v>8563.86639262726</v>
       </c>
       <c r="S9">
-        <v>0.001185727612664543</v>
+        <v>0.08380342923216383</v>
       </c>
       <c r="T9">
-        <v>0.001185727612664543</v>
+        <v>0.08380342923216383</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.38770590782228</v>
+        <v>0.8079146666666667</v>
       </c>
       <c r="H10">
-        <v>2.38770590782228</v>
+        <v>2.423744</v>
       </c>
       <c r="I10">
-        <v>0.04583366903831002</v>
+        <v>0.01235600471453799</v>
       </c>
       <c r="J10">
-        <v>0.04583366903831002</v>
+        <v>0.01235600471453799</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.0882008104475</v>
+        <v>44.017783</v>
       </c>
       <c r="N10">
-        <v>43.0882008104475</v>
+        <v>132.053349</v>
       </c>
       <c r="O10">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="P10">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="Q10">
-        <v>102.8819516325383</v>
+        <v>35.56261247985067</v>
       </c>
       <c r="R10">
-        <v>102.8819516325383</v>
+        <v>320.063512318656</v>
       </c>
       <c r="S10">
-        <v>0.01166481457755132</v>
+        <v>0.00313204558252871</v>
       </c>
       <c r="T10">
-        <v>0.01166481457755132</v>
+        <v>0.00313204558252871</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.38770590782228</v>
+        <v>0.8079146666666667</v>
       </c>
       <c r="H11">
-        <v>2.38770590782228</v>
+        <v>2.423744</v>
       </c>
       <c r="I11">
-        <v>0.04583366903831002</v>
+        <v>0.01235600471453799</v>
       </c>
       <c r="J11">
-        <v>0.04583366903831002</v>
+        <v>0.01235600471453799</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>99.6651130769268</v>
+        <v>99.76728333333334</v>
       </c>
       <c r="N11">
-        <v>99.6651130769268</v>
+        <v>299.30185</v>
       </c>
       <c r="O11">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="P11">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="Q11">
-        <v>237.9709792975537</v>
+        <v>80.60345145848889</v>
       </c>
       <c r="R11">
-        <v>237.9709792975537</v>
+        <v>725.4310631264001</v>
       </c>
       <c r="S11">
-        <v>0.02698128587469703</v>
+        <v>0.007098850913165183</v>
       </c>
       <c r="T11">
-        <v>0.02698128587469703</v>
+        <v>0.007098850913165183</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.38770590782228</v>
+        <v>0.8079146666666667</v>
       </c>
       <c r="H12">
-        <v>2.38770590782228</v>
+        <v>2.423744</v>
       </c>
       <c r="I12">
-        <v>0.04583366903831002</v>
+        <v>0.01235600471453799</v>
       </c>
       <c r="J12">
-        <v>0.04583366903831002</v>
+        <v>0.01235600471453799</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.807486038585729</v>
+        <v>10.852095</v>
       </c>
       <c r="N12">
-        <v>9.807486038585729</v>
+        <v>32.556285</v>
       </c>
       <c r="O12">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="P12">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="Q12">
-        <v>23.41739235521568</v>
+        <v>8.767566714560001</v>
       </c>
       <c r="R12">
-        <v>23.41739235521568</v>
+        <v>78.90810043104001</v>
       </c>
       <c r="S12">
-        <v>0.002655077352041279</v>
+        <v>0.0007721710156536484</v>
       </c>
       <c r="T12">
-        <v>0.002655077352041279</v>
+        <v>0.0007721710156536485</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8079146666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.423744</v>
+      </c>
+      <c r="I13">
+        <v>0.01235600471453799</v>
+      </c>
+      <c r="J13">
+        <v>0.01235600471453799</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.01418566666667</v>
+      </c>
+      <c r="N13">
+        <v>57.042557</v>
+      </c>
+      <c r="O13">
+        <v>0.1094963327100864</v>
+      </c>
+      <c r="P13">
+        <v>0.1094963327100864</v>
+      </c>
+      <c r="Q13">
+        <v>15.36183947482311</v>
+      </c>
+      <c r="R13">
+        <v>138.256555273408</v>
+      </c>
+      <c r="S13">
+        <v>0.001352937203190448</v>
+      </c>
+      <c r="T13">
+        <v>0.001352937203190448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.636126666666667</v>
+      </c>
+      <c r="H14">
+        <v>7.90838</v>
+      </c>
+      <c r="I14">
+        <v>0.040316130979327</v>
+      </c>
+      <c r="J14">
+        <v>0.040316130979327</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>44.017783</v>
+      </c>
+      <c r="N14">
+        <v>132.053349</v>
+      </c>
+      <c r="O14">
+        <v>0.253483683026081</v>
+      </c>
+      <c r="P14">
+        <v>0.253483683026081</v>
+      </c>
+      <c r="Q14">
+        <v>116.0364515738467</v>
+      </c>
+      <c r="R14">
+        <v>1044.32806416462</v>
+      </c>
+      <c r="S14">
+        <v>0.01021948136600169</v>
+      </c>
+      <c r="T14">
+        <v>0.01021948136600169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.636126666666667</v>
+      </c>
+      <c r="H15">
+        <v>7.90838</v>
+      </c>
+      <c r="I15">
+        <v>0.040316130979327</v>
+      </c>
+      <c r="J15">
+        <v>0.040316130979327</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>99.76728333333334</v>
+      </c>
+      <c r="N15">
+        <v>299.30185</v>
+      </c>
+      <c r="O15">
+        <v>0.5745264004968147</v>
+      </c>
+      <c r="P15">
+        <v>0.5745264004968147</v>
+      </c>
+      <c r="Q15">
+        <v>262.9991960558889</v>
+      </c>
+      <c r="R15">
+        <v>2366.992764503</v>
+      </c>
+      <c r="S15">
+        <v>0.02316268161351086</v>
+      </c>
+      <c r="T15">
+        <v>0.02316268161351086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.38770590782228</v>
-      </c>
-      <c r="H13">
-        <v>2.38770590782228</v>
-      </c>
-      <c r="I13">
-        <v>0.04583366903831002</v>
-      </c>
-      <c r="J13">
-        <v>0.04583366903831002</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.7423915026398</v>
-      </c>
-      <c r="N13">
-        <v>16.7423915026398</v>
-      </c>
-      <c r="O13">
-        <v>0.09888999351616218</v>
-      </c>
-      <c r="P13">
-        <v>0.09888999351616218</v>
-      </c>
-      <c r="Q13">
-        <v>39.97590710192659</v>
-      </c>
-      <c r="R13">
-        <v>39.97590710192659</v>
-      </c>
-      <c r="S13">
-        <v>0.004532491234020402</v>
-      </c>
-      <c r="T13">
-        <v>0.004532491234020402</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.636126666666667</v>
+      </c>
+      <c r="H16">
+        <v>7.90838</v>
+      </c>
+      <c r="I16">
+        <v>0.040316130979327</v>
+      </c>
+      <c r="J16">
+        <v>0.040316130979327</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.852095</v>
+      </c>
+      <c r="N16">
+        <v>32.556285</v>
+      </c>
+      <c r="O16">
+        <v>0.06249358376701795</v>
+      </c>
+      <c r="P16">
+        <v>0.06249358376701795</v>
+      </c>
+      <c r="Q16">
+        <v>28.6074970187</v>
+      </c>
+      <c r="R16">
+        <v>257.4674731683</v>
+      </c>
+      <c r="S16">
+        <v>0.002519499508518639</v>
+      </c>
+      <c r="T16">
+        <v>0.00251949950851864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.636126666666667</v>
+      </c>
+      <c r="H17">
+        <v>7.90838</v>
+      </c>
+      <c r="I17">
+        <v>0.040316130979327</v>
+      </c>
+      <c r="J17">
+        <v>0.040316130979327</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.01418566666667</v>
+      </c>
+      <c r="N17">
+        <v>57.042557</v>
+      </c>
+      <c r="O17">
+        <v>0.1094963327100864</v>
+      </c>
+      <c r="P17">
+        <v>0.1094963327100864</v>
+      </c>
+      <c r="Q17">
+        <v>50.12380188085111</v>
+      </c>
+      <c r="R17">
+        <v>451.11421692766</v>
+      </c>
+      <c r="S17">
+        <v>0.004414468491295812</v>
+      </c>
+      <c r="T17">
+        <v>0.004414468491295812</v>
       </c>
     </row>
   </sheetData>
